--- a/utils/exceldata.xlsx
+++ b/utils/exceldata.xlsx
@@ -1,82 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PW\PlayWrightAutomation\utils\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538ADB3D-CCDD-43DB-9521-200162E7CC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>MyPageElement</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>adas081144</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
     <t>Wick</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>adas081144@yopmail.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>Adas#123</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>invalidemail</t>
   </si>
   <si>
     <t>aa@yopmail.com</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>MyPageElement</t>
-  </si>
-  <si>
-    <t>adas081144</t>
-  </si>
-  <si>
-    <t>adas081144@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,7 +101,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -440,49 +434,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="D3">
+        <v>7806767676767</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,15 +487,15 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
